--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,22 @@
   </si>
   <si>
     <t>中低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完善eshop原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.继续跟包包碰原型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +128,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -138,23 +170,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -490,7 +530,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -499,24 +539,24 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -525,31 +565,64 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -565,6 +638,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>2.继续跟包包碰原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨晚已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.修改demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -606,6 +618,12 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
@@ -614,6 +632,9 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
@@ -623,6 +644,17 @@
         <v>17</v>
       </c>
       <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
         <v>0</v>
       </c>
     </row>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,26 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月22日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开始做eshop的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.郭总的中秋贺卡3张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,8 +202,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -202,11 +224,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A10" sqref="A10:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -609,7 +633,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -626,6 +650,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -633,10 +658,11 @@
         <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -648,6 +674,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -655,11 +682,37 @@
         <v>24</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A3:A4"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -214,11 +214,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -542,28 +542,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
@@ -592,7 +592,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -606,7 +606,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -621,7 +621,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -633,7 +633,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -650,7 +650,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -662,7 +662,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -674,7 +674,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -696,7 +696,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -707,7 +707,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,15 +131,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2.郭总的中秋贺卡3张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.需求文档修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务临时调配，下周开始做。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.郭总的中秋贺卡3张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +184,13 @@
       <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3366FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -211,7 +226,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -223,6 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -530,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -628,7 +644,7 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -669,7 +685,7 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>0</v>
       </c>
     </row>
@@ -693,20 +709,34 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5">
         <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="1">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5">
         <v>0</v>
       </c>
     </row>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.需求修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +201,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -226,9 +240,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -238,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -546,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -558,31 +573,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -596,7 +611,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -608,7 +623,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -622,7 +637,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -637,19 +652,19 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -666,7 +681,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -678,19 +693,19 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -711,7 +726,7 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" t="s">
@@ -725,7 +740,7 @@
       <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2">
         <v>0</v>
       </c>
     </row>
@@ -736,9 +751,23 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="D19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,14 @@
   </si>
   <si>
     <t>中高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊原因，周末全部弄好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月23-24日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,8 +239,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -244,6 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,15 +264,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -573,31 +585,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -611,7 +623,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -623,7 +635,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -637,7 +649,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -652,7 +664,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -664,7 +676,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -681,7 +693,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -693,7 +705,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -705,7 +717,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -744,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -752,10 +764,10 @@
         <v>31</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -763,11 +775,64 @@
         <v>33</v>
       </c>
       <c r="D18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="D19" s="6"/>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,30 @@
   </si>
   <si>
     <t>9月23-24日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月25日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开始做郭总的3张中秋贺卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.开始做eshop的登录+注册页面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -820,7 +844,10 @@
         <v>7</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -831,6 +858,34 @@
         <v>33</v>
       </c>
       <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2">
         <v>0</v>
       </c>
     </row>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="25020" windowHeight="14760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.26日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.eshop 首页+购买页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -875,7 +887,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -886,7 +898,18 @@
         <v>41</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,11 +195,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.eshop 首页+购买页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.eshop 首页+详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eshop设计计划：
+9月27： 商品详情2+购买+支付，    共计3个页面
+9月28： 个人中心（商户）：商户信息+订单信息
+        个人中心（用户）：个人信息+订单信息，   共计4个页面
+9月29： 个人中心（商户）：资产信息
+        个人中心（用户）：资产信息，    共计2个页面
+9月30： 个人中心（商户）：账号管理（业务员权限+新建商品弹窗+审核权限）
+                          共计3个页面
+国庆期间：平台管理：商户申请列表+商户申请详情；    共计2个页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +298,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -299,6 +311,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -609,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -620,7 +638,7 @@
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:16">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -636,15 +654,33 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="I1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -657,8 +693,16 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>8</v>
@@ -669,8 +713,26 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -683,8 +745,16 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>13</v>
@@ -698,8 +768,16 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>16</v>
@@ -710,8 +788,26 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -727,8 +823,16 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>21</v>
@@ -739,8 +843,16 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>16</v>
@@ -751,8 +863,16 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>23</v>
@@ -763,8 +883,26 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -780,8 +918,16 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -791,8 +937,16 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -802,8 +956,16 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -816,11 +978,27 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -836,8 +1014,16 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -847,8 +1033,16 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -861,8 +1055,16 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -875,8 +1077,26 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -889,8 +1109,16 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="B26" t="s">
         <v>40</v>
       </c>
@@ -900,20 +1128,29 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
         <v>43</v>
       </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A6:A8"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,22 @@
 9月30： 个人中心（商户）：账号管理（业务员权限+新建商品弹窗+审核权限）
                           共计3个页面
 国庆期间：平台管理：商户申请列表+商户申请详情；    共计2个页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 商品详情2+购买+支付，    共计3个页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页已经完成，详情页需要整理上传。明早10点前提交。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,6 +320,12 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -311,12 +333,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -627,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -639,49 +655,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -693,17 +709,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -713,27 +729,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -745,17 +761,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -768,17 +784,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -788,27 +804,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -823,17 +839,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -843,17 +859,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -863,17 +879,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -883,24 +899,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -918,14 +934,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -937,14 +953,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -956,14 +972,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -978,25 +994,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1014,14 +1030,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1033,14 +1049,14 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1055,14 +1071,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1077,24 +1093,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1109,14 +1125,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1128,14 +1144,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1146,6 +1162,23 @@
       </c>
       <c r="C28" t="s">
         <v>43</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,22 @@
   </si>
   <si>
     <t>1.eshop 首页+详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 商品详情2+购买+支付，    共计3个页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,19 +231,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9月27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 商品详情2+购买+支付，    共计3个页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首页已经完成，详情页需要整理上传。明早10点前提交。</t>
+    <t>已经完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心（商户）：商户信息+订单信息
+个人中心（用户）：个人信息+订单信息  
+共计4个页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,24 +328,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -643,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -655,49 +675,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="I1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -709,17 +729,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -729,24 +749,24 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
@@ -761,14 +781,14 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="6"/>
@@ -784,14 +804,14 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="6"/>
@@ -804,24 +824,24 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="6" t="s">
@@ -839,14 +859,14 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="6"/>
@@ -859,14 +879,14 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="6"/>
@@ -879,14 +899,14 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="6"/>
@@ -899,24 +919,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -934,14 +954,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -953,14 +973,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -972,14 +992,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -994,25 +1014,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1030,14 +1050,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1047,16 +1067,19 @@
         <v>9</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1071,14 +1094,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1093,24 +1116,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1125,14 +1148,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1144,14 +1167,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1164,25 +1187,48 @@
         <v>43</v>
       </c>
       <c r="D28" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>47</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="B33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="33" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1192,6 +1238,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,45 @@
   </si>
   <si>
     <t>9月28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估失败，
+一天4个页面有点吃不消，明天继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心（商户）：商户信息+订单信息
+个人中心（用户）：个人信息+订单信息  
+共计4个页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">个人中心（商户）：订单信息
+个人中心（用户）：订单信息  
+共计2个页面
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心（商户）（时间充裕的情况下进行）：资产信息
+        个人中心（用户）：资产信息，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,20 +267,6 @@
 9月30： 个人中心（商户）：账号管理（业务员权限+新建商品弹窗+审核权限）
                           共计3个页面
 国庆期间：平台管理：商户申请列表+商户申请详情；    共计2个页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心（商户）：商户信息+订单信息
-个人中心（用户）：个人信息+订单信息  
-共计4个页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,11 +353,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -340,19 +383,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -663,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -675,49 +712,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="I1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -729,17 +766,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="7"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -749,27 +786,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -781,17 +818,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -804,17 +841,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -824,27 +861,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -859,17 +896,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -879,17 +916,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -899,17 +936,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -919,24 +956,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -954,14 +991,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -973,14 +1010,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -992,14 +1029,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1014,25 +1051,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1050,14 +1087,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1070,16 +1107,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1094,14 +1131,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1116,24 +1153,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1148,14 +1185,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1167,14 +1204,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1207,28 +1244,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:7" ht="14" customHeight="1">
+      <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" ht="33" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="36" spans="1:7" ht="56">
+      <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" ht="33" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="B36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1238,11 +1305,6 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,16 @@
                           共计3个页面
 国庆期间：平台管理：商户申请列表+商户申请详情；    共计2个页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月29： 个人中心（商户）：资产信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        个人中心（用户）：资产信息，    共计2个页面</t>
   </si>
 </sst>
 </file>
@@ -342,8 +352,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -362,16 +374,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,24 +389,32 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -700,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:P26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -712,49 +726,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -766,17 +780,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="9"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -786,27 +800,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -818,17 +832,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="7"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -841,17 +855,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="7"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -861,27 +875,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -896,17 +910,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="7"/>
+      <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -916,17 +930,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="7"/>
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -936,17 +950,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="7"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -956,24 +970,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -991,14 +1005,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1010,14 +1024,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1029,14 +1043,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1051,25 +1065,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1087,14 +1101,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1109,14 +1123,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1131,14 +1145,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1153,24 +1167,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1185,14 +1199,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1204,14 +1218,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1245,57 +1259,67 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="11">
         <v>0.6</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="33" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="36" spans="1:7" ht="56">
       <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="D36" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1305,6 +1329,12 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,22 @@
   </si>
   <si>
     <t xml:space="preserve">        个人中心（用户）：资产信息，    共计2个页面</t>
+  </si>
+  <si>
+    <t>10月9号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮雪莹修改校比邻UI修改意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面在国庆假期之间全部完成，已经上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -352,8 +368,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -377,10 +395,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -388,33 +418,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -714,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -726,49 +746,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -780,17 +800,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="7"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -800,27 +820,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -832,17 +852,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="10"/>
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -855,17 +875,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="10"/>
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -875,27 +895,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -910,17 +930,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="10"/>
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -930,17 +950,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="10"/>
+      <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -950,17 +970,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -970,24 +990,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1005,14 +1025,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1024,14 +1044,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1043,14 +1063,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1065,25 +1085,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1101,14 +1121,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1123,14 +1143,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1145,14 +1165,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1167,24 +1187,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1199,14 +1219,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1218,14 +1238,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1258,35 +1278,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" customHeight="1">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:11" ht="14" customHeight="1">
+      <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="14">
         <v>0.6</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="33" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="56">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" ht="33" customHeight="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1299,27 +1331,63 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1329,12 +1397,6 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,18 @@
   </si>
   <si>
     <t>页面在国庆假期之间全部完成，已经上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月10号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,22 +407,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -420,6 +423,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -734,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -746,49 +758,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -800,17 +812,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -820,27 +832,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -852,17 +864,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="8"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -875,17 +887,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="8"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -895,27 +907,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -930,17 +942,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -950,17 +962,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -970,17 +982,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -990,24 +1002,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1025,14 +1037,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1044,14 +1056,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1063,14 +1075,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1085,25 +1097,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1121,14 +1133,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1143,14 +1155,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1165,14 +1177,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1187,24 +1199,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1219,14 +1231,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1238,14 +1250,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1279,44 +1291,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="11">
         <v>0.6</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="8" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1331,21 +1343,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1354,19 +1366,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1378,16 +1390,23 @@
       <c r="C42" t="s">
         <v>63</v>
       </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1397,6 +1416,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,10 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月11号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,8 +384,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -407,13 +415,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -424,29 +441,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -746,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D52" sqref="D52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -758,49 +770,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -812,17 +824,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -832,27 +844,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -864,17 +876,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -887,17 +899,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -907,27 +919,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -942,17 +954,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -962,17 +974,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="6"/>
+      <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -982,17 +994,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="6"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1002,24 +1014,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1037,14 +1049,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1056,14 +1068,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1075,14 +1087,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1097,25 +1109,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1133,14 +1145,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1155,14 +1167,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1177,14 +1189,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1199,24 +1211,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1231,14 +1243,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1250,14 +1262,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1291,44 +1303,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="14">
         <v>0.6</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1343,21 +1355,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1366,19 +1378,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1404,9 +1416,30 @@
       <c r="C44" t="s">
         <v>67</v>
       </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1416,13 +1449,6 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>10月11号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月12号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,8 +388,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -415,22 +423,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -441,8 +440,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -451,6 +459,8 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -459,6 +469,8 @@
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -758,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:E52"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -770,49 +782,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -824,17 +836,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -844,27 +856,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -876,17 +888,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="8"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -899,17 +911,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="8"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -919,27 +931,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -954,17 +966,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -974,17 +986,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -994,17 +1006,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1014,24 +1026,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1049,14 +1061,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1068,14 +1080,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1087,14 +1099,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1109,25 +1121,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1145,14 +1157,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1167,14 +1179,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1189,14 +1201,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1211,24 +1223,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1243,14 +1255,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1262,14 +1274,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1303,44 +1315,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="11">
         <v>0.6</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="8" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1355,21 +1367,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1378,19 +1390,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1430,16 +1442,23 @@
       <c r="C46" t="s">
         <v>67</v>
       </c>
+      <c r="D46" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1449,6 +1468,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,10 @@
   </si>
   <si>
     <t>10月12号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月13号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,8 +392,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -423,13 +429,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -440,17 +455,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -461,6 +467,7 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -471,6 +478,7 @@
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -770,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -782,49 +790,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -836,17 +844,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -856,27 +864,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -888,17 +896,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -911,17 +919,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -931,27 +939,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -966,17 +974,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -986,17 +994,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="6"/>
+      <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1006,17 +1014,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="6"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1026,24 +1034,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1061,14 +1069,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1080,14 +1088,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1099,14 +1107,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1121,25 +1129,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1157,14 +1165,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1179,14 +1187,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1201,14 +1209,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1223,24 +1231,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1255,14 +1263,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1274,14 +1282,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1315,44 +1323,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="14">
         <v>0.6</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1367,21 +1375,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1390,19 +1398,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1456,9 +1464,31 @@
       <c r="C48" t="s">
         <v>67</v>
       </c>
+      <c r="D48" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1468,13 +1498,6 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>10月13号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目开始设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,22 +441,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -454,6 +457,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -778,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -790,49 +802,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -844,17 +856,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -864,27 +876,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -896,17 +908,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="8"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -919,17 +931,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="8"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -939,27 +951,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -974,17 +986,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -994,17 +1006,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1014,17 +1026,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1034,24 +1046,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1069,14 +1081,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1088,14 +1100,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1107,14 +1119,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1129,25 +1141,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1165,14 +1177,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1187,14 +1199,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1209,14 +1221,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1231,24 +1243,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1263,14 +1275,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1282,14 +1294,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1323,44 +1335,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="11">
         <v>0.6</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="8" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1375,21 +1387,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1398,19 +1410,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1478,17 +1490,23 @@
       <c r="C50" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1498,6 +1516,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,12 +331,24 @@
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>10月17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目设计2个页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +392,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -404,7 +424,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -428,8 +448,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -441,13 +463,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -458,17 +489,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -480,6 +503,7 @@
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -491,6 +515,7 @@
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -790,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -802,49 +827,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -856,17 +881,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -876,27 +901,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -908,17 +933,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -931,17 +956,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -951,27 +976,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -986,17 +1011,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1006,17 +1031,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="6"/>
+      <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1026,17 +1051,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="6"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1046,24 +1071,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1081,14 +1106,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1100,14 +1125,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1119,14 +1144,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1141,25 +1166,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1177,14 +1202,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1199,14 +1224,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1221,14 +1246,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1243,24 +1268,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1275,14 +1300,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1294,14 +1319,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1335,44 +1360,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="14">
         <v>0.6</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1387,21 +1412,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1410,19 +1435,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1504,9 +1529,30 @@
       <c r="C52" t="s">
         <v>73</v>
       </c>
+      <c r="D52" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1516,13 +1562,6 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,11 +336,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sla项目设计2个页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：角色管理+用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：配置管理+问题跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：预警管理+版本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：版本详情+项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：统计分析评分管理+评分详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：数据统计+数据分析（项目分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：数据分析（评估项分析+责任人分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：数据分析（部门分析+地域分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月27日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他设计项汇总</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,8 +488,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -462,6 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -489,9 +566,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="37">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -504,6 +580,12 @@
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -516,6 +598,12 @@
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -815,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -827,49 +915,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -881,17 +969,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -901,27 +989,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -933,17 +1021,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -956,17 +1044,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -976,27 +1064,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1011,17 +1099,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1031,17 +1119,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1051,17 +1139,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1071,24 +1159,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1106,14 +1194,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1125,14 +1213,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1144,14 +1232,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1166,25 +1254,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1202,14 +1290,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1224,14 +1312,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1246,14 +1334,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1268,24 +1356,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1300,14 +1388,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1319,14 +1407,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1360,44 +1448,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="15">
         <v>0.6</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="8" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1412,21 +1500,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1435,19 +1523,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1537,11 +1625,81 @@
       <c r="A54" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" t="s">
         <v>75</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>76</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +405,18 @@
   </si>
   <si>
     <t>其他设计项汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设计里面所有的弹窗设计要完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周计划项目：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,8 +500,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -567,7 +583,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -586,6 +602,8 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -604,6 +622,8 @@
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -905,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1593,7 +1613,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -1607,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -1621,7 +1641,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -1635,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -1645,60 +1665,75 @@
       <c r="C56" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+      <c r="J58" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+    <row r="60" spans="1:11">
+      <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="K60" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+    <row r="62" spans="1:11">
+      <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="K62" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
+    <row r="64" spans="1:11">
+      <c r="J64" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="K64" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+    <row r="66" spans="10:11">
+      <c r="J66" t="s">
         <v>86</v>
       </c>
-      <c r="B66" t="s">
+      <c r="K66" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+    <row r="68" spans="10:11">
+      <c r="J68" t="s">
         <v>89</v>
       </c>
-      <c r="B68" t="s">
+      <c r="K68" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+    <row r="70" spans="10:11">
+      <c r="J70" t="s">
         <v>91</v>
       </c>
-      <c r="B70" t="s">
+      <c r="K70" t="s">
         <v>92</v>
       </c>
     </row>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,55 +368,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sla项目页面设计：版本详情+项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：统计分析评分管理+评分详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：数据统计+数据分析（项目分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：数据分析（评估项分析+责任人分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：数据分析（部门分析+地域分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月27日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他设计项汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设计里面所有的弹窗设计要完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周计划项目：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sla项目页面设计：预警管理+版本管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sla项目页面设计：版本详情+项目管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sla项目页面设计：统计分析评分管理+评分详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sla项目页面设计：数据统计+数据分析（项目分析）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sla项目页面设计：数据分析（评估项分析+责任人分析）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sla项目页面设计：数据分析（部门分析+地域分析）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月27日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他设计项汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设计里面所有的弹窗设计要完成</t>
+  </si>
+  <si>
+    <t>sla项目页面设计：预警管理+版本管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一周计划项目：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +550,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -556,22 +563,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -581,6 +579,18 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -926,7 +936,7 @@
   <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -935,49 +945,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -989,17 +999,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="11"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1009,27 +1019,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1041,17 +1051,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="9"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1064,17 +1074,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="9"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1084,27 +1094,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1119,17 +1129,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="9"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1139,17 +1149,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="9"/>
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1159,17 +1169,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="9"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1179,24 +1189,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1214,14 +1224,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1233,14 +1243,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1252,14 +1262,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1274,25 +1284,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1310,14 +1320,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1332,14 +1342,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1354,14 +1364,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1376,24 +1386,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1408,14 +1418,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1427,14 +1437,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1468,44 +1478,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="12">
         <v>0.6</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="9" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1520,21 +1530,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1543,19 +1553,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1613,7 +1623,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -1627,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -1641,7 +1651,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -1655,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -1669,83 +1679,116 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>77</v>
       </c>
       <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
         <v>93</v>
-      </c>
-      <c r="C58" t="s">
-        <v>94</v>
       </c>
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="K58" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="K60" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+    </row>
+    <row r="62" spans="1:15">
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="K62" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+    </row>
+    <row r="64" spans="1:15">
       <c r="J64" t="s">
         <v>80</v>
       </c>
-      <c r="K64" s="6" t="s">
+      <c r="K64" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+    </row>
+    <row r="66" spans="10:15">
+      <c r="J66" t="s">
+        <v>85</v>
+      </c>
+      <c r="K66" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="10:11">
-      <c r="J66" t="s">
-        <v>86</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+    </row>
+    <row r="68" spans="10:15">
+      <c r="J68" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="68" spans="10:11">
-      <c r="J68" t="s">
+      <c r="K68" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+    </row>
+    <row r="70" spans="10:15">
+      <c r="J70" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="70" spans="10:11">
-      <c r="J70" t="s">
+      <c r="K70" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K70" t="s">
-        <v>92</v>
-      </c>
+      <c r="L70" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+  <mergeCells count="23">
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="K66:O66"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1755,6 +1798,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,43 +368,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sla项目页面设计：统计分析评分管理+评分详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：数据统计+数据分析（项目分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：数据分析（评估项分析+责任人分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：数据分析（部门分析+地域分析）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月27日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他设计项汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设计里面所有的弹窗设计要完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周计划项目：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：预警管理+版本管理</t>
+  </si>
+  <si>
+    <t>sla项目页面设计：预警管理+版本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sla项目页面设计：版本详情+项目管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sla项目页面设计：统计分析评分管理+评分详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sla项目页面设计：数据统计+数据分析（项目分析）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sla项目页面设计：数据分析（评估项分析+责任人分析）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sla项目页面设计：数据分析（部门分析+地域分析）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月27日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他设计项汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设计里面所有的弹窗设计要完成</t>
+  </si>
+  <si>
+    <t>sla项目页面设计：版本详情+项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -412,14 +438,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一周计划项目：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sla项目页面设计：预警管理+版本管理</t>
-  </si>
-  <si>
-    <t>sla项目页面设计：预警管理+版本管理</t>
+    <t>修改之前做的版本。。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -507,8 +526,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -563,13 +584,25 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -580,20 +613,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -614,6 +635,7 @@
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -634,6 +656,7 @@
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -936,7 +959,7 @@
   <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -945,49 +968,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -999,17 +1022,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="9"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1019,27 +1042,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1051,17 +1074,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1074,17 +1097,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="7"/>
+      <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1094,27 +1117,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1129,17 +1152,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="7"/>
+      <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1149,17 +1172,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="7"/>
+      <c r="A12" s="11"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1169,17 +1192,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="7"/>
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1189,24 +1212,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1224,14 +1247,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1243,14 +1266,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1262,14 +1285,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1284,25 +1307,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1320,14 +1343,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1342,14 +1365,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1364,14 +1387,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1386,24 +1409,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1418,14 +1441,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1437,14 +1460,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1478,44 +1501,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="16">
         <v>0.6</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="7" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1530,21 +1553,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1553,19 +1576,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1679,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -1687,108 +1710,131 @@
         <v>77</v>
       </c>
       <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
         <v>92</v>
       </c>
-      <c r="C58" t="s">
-        <v>93</v>
+      <c r="D58" s="1">
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
+      <c r="K58" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
+      <c r="K60" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="62" spans="1:15">
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
+      <c r="K62" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
     </row>
     <row r="64" spans="1:15">
       <c r="J64" t="s">
         <v>80</v>
       </c>
-      <c r="K64" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
+      <c r="K64" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
     </row>
     <row r="66" spans="10:15">
       <c r="J66" t="s">
-        <v>85</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
     </row>
     <row r="68" spans="10:15">
       <c r="J68" t="s">
+        <v>87</v>
+      </c>
+      <c r="K68" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K68" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
     </row>
     <row r="70" spans="10:15">
       <c r="J70" t="s">
+        <v>89</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K70" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="L70" s="9"/>
+      <c r="L70" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K64:O64"/>
-    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1798,13 +1844,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K64:O64"/>
+    <mergeCell ref="K66:O66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,14 @@
   </si>
   <si>
     <t>修改之前做的版本。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：统计分析评分管理+评分详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -526,7 +534,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -570,8 +578,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -583,26 +593,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -613,8 +614,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -636,6 +650,7 @@
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -657,6 +672,7 @@
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -956,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -968,49 +984,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1022,17 +1038,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="7"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1042,27 +1058,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1074,17 +1090,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="11"/>
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1097,17 +1113,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="11"/>
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1117,27 +1133,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1152,17 +1168,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="11"/>
+      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1172,17 +1188,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="11"/>
+      <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1192,17 +1208,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="11"/>
+      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1212,24 +1228,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1247,14 +1263,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1266,14 +1282,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1285,14 +1301,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1307,25 +1323,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1343,14 +1359,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1365,14 +1381,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1387,14 +1403,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1409,24 +1425,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1441,14 +1457,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1460,14 +1476,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1501,44 +1517,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="13">
         <v>0.6</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="11" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1553,21 +1569,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1576,19 +1592,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1721,13 +1737,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1744,13 +1760,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="8" t="s">
+      <c r="K60" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1762,6 +1778,9 @@
       <c r="C61" t="s">
         <v>100</v>
       </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:15">
       <c r="B62" t="s">
@@ -1770,71 +1789,96 @@
       <c r="C62" t="s">
         <v>102</v>
       </c>
+      <c r="D62" s="1">
+        <v>0.2</v>
+      </c>
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="8" t="s">
+      <c r="K62" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="D63" s="1"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="J64" t="s">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="10:15">
+      <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="K65" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-    </row>
-    <row r="66" spans="10:15">
-      <c r="J66" t="s">
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+    </row>
+    <row r="67" spans="10:15">
+      <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="K67" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-    </row>
-    <row r="68" spans="10:15">
-      <c r="J68" t="s">
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+    </row>
+    <row r="69" spans="10:15">
+      <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K68" s="7" t="s">
+      <c r="K69" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-    </row>
-    <row r="70" spans="10:15">
-      <c r="J70" t="s">
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+    </row>
+    <row r="71" spans="10:15">
+      <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K70" s="7" t="s">
+      <c r="K71" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="L70" s="7"/>
+      <c r="L71" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1844,13 +1888,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K64:O64"/>
-    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,7 +534,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -580,8 +580,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -596,14 +600,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -614,21 +631,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="49">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -651,6 +656,8 @@
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -673,6 +680,8 @@
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -975,7 +984,7 @@
   <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -984,49 +993,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1038,17 +1047,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1058,27 +1067,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1090,17 +1099,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="8"/>
+      <c r="A7" s="13"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1113,17 +1122,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="8"/>
+      <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1133,27 +1142,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1168,17 +1177,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="8"/>
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1188,17 +1197,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="8"/>
+      <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1208,17 +1217,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="8"/>
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1228,24 +1237,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1263,14 +1272,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1282,14 +1291,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1301,14 +1310,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1323,25 +1332,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1359,14 +1368,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1381,14 +1390,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1403,14 +1412,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1425,24 +1434,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1457,14 +1466,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1476,14 +1485,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1517,44 +1526,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="18">
         <v>0.6</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="8" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1569,21 +1578,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1592,19 +1601,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1737,13 +1746,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="17" t="s">
+      <c r="K58" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1760,13 +1769,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="17" t="s">
+      <c r="K60" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1795,13 +1804,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="17" t="s">
+      <c r="K62" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -1815,70 +1824,86 @@
       <c r="A64" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="10:15">
+      <c r="D64" s="19">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:15">
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="17" t="s">
+      <c r="K65" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-    </row>
-    <row r="67" spans="10:15">
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:15">
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-    </row>
-    <row r="69" spans="10:15">
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+    </row>
+    <row r="69" spans="1:15">
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-    </row>
-    <row r="71" spans="10:15">
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+    </row>
+    <row r="71" spans="1:15">
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="10"/>
+      <c r="L71" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1888,13 +1913,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +447,10 @@
   </si>
   <si>
     <t>sla项目页面设计：统计分析评分管理+评分详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -534,7 +538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -584,8 +588,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -601,26 +607,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -631,9 +626,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -658,6 +665,7 @@
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -682,6 +690,7 @@
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -983,59 +992,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1047,17 +1056,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1067,27 +1076,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1099,17 +1108,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="13"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1122,17 +1131,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="13"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1142,27 +1151,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1177,17 +1186,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="13"/>
+      <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1197,17 +1206,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="13"/>
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1217,17 +1226,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="13"/>
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1237,24 +1246,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1272,14 +1281,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1291,14 +1300,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1310,14 +1319,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1332,25 +1341,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1368,14 +1377,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1390,14 +1399,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1412,14 +1421,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1434,24 +1443,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1466,14 +1475,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1485,14 +1494,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1526,44 +1535,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="15">
         <v>0.6</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="13" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1578,21 +1587,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1601,19 +1610,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1746,13 +1755,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1769,13 +1778,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1804,13 +1813,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -1830,7 +1839,7 @@
       <c r="C64" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="9">
         <v>1</v>
       </c>
       <c r="E64" s="8"/>
@@ -1840,13 +1849,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -1858,7 +1867,9 @@
       <c r="C66" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="8"/>
+      <c r="D66" s="9">
+        <v>1</v>
+      </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
     </row>
@@ -1866,44 +1877,58 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="9" t="s">
+      <c r="K67" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
     </row>
     <row r="69" spans="1:15">
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="9" t="s">
+      <c r="K69" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
     </row>
     <row r="71" spans="1:15">
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="K71" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="9"/>
+      <c r="L71" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1913,13 +1938,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +455,21 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sla项目页面设计：数据分析（部门分析+地域分析）</t>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序原型设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +553,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -590,8 +605,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -608,14 +625,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -626,21 +656,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="53">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -666,6 +684,7 @@
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -691,6 +710,7 @@
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -992,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1002,49 +1022,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1056,17 +1076,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1076,27 +1096,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1108,17 +1128,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="10"/>
+      <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1131,17 +1151,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="10"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1151,27 +1171,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1186,17 +1206,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="10"/>
+      <c r="A11" s="15"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1206,17 +1226,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="10"/>
+      <c r="A12" s="15"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1226,17 +1246,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="10"/>
+      <c r="A13" s="15"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1246,24 +1266,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1281,14 +1301,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1300,14 +1320,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1319,14 +1339,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1341,25 +1361,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1377,14 +1397,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1399,14 +1419,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1421,14 +1441,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1443,24 +1463,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1475,14 +1495,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1494,14 +1514,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1535,44 +1555,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="20">
         <v>0.6</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="10" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1587,21 +1607,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1610,19 +1630,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1755,13 +1775,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="19" t="s">
+      <c r="K58" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1778,13 +1798,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="19" t="s">
+      <c r="K60" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1813,13 +1833,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="19" t="s">
+      <c r="K62" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -1849,13 +1869,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="19" t="s">
+      <c r="K65" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -1877,58 +1897,81 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="12" t="s">
+      <c r="K67" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="D68" s="21">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:15">
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="21">
+        <v>1</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="12" t="s">
+      <c r="K69" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
     </row>
     <row r="71" spans="1:15">
+      <c r="A71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="12" t="s">
+      <c r="K71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="12"/>
+      <c r="L71" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -1938,13 +1981,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,6 +470,14 @@
   </si>
   <si>
     <t>微信小程序原型设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,8 +561,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -626,6 +636,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,9 +667,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="55">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -685,6 +695,7 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -711,6 +722,7 @@
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1010,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1022,49 +1034,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1076,17 +1088,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1096,27 +1108,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1128,17 +1140,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1151,17 +1163,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1171,27 +1183,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1206,17 +1218,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1226,17 +1238,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1246,17 +1258,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1266,24 +1278,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1301,14 +1313,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1320,14 +1332,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1339,14 +1351,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1361,25 +1373,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1397,14 +1409,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1419,14 +1431,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1441,14 +1453,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1463,24 +1475,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1495,14 +1507,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1514,14 +1526,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1555,44 +1567,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="21">
         <v>0.6</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="15" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1607,21 +1619,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1630,19 +1642,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1775,13 +1787,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="12" t="s">
+      <c r="K58" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1798,13 +1810,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="12" t="s">
+      <c r="K60" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1833,13 +1845,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="12" t="s">
+      <c r="K62" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -1869,13 +1881,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="12" t="s">
+      <c r="K65" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -1897,13 +1909,13 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -1915,7 +1927,7 @@
       <c r="C68" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="11">
         <v>1</v>
       </c>
       <c r="E68" s="10"/>
@@ -1928,7 +1940,7 @@
       <c r="C69" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="11">
         <v>1</v>
       </c>
       <c r="E69" s="10"/>
@@ -1937,13 +1949,13 @@
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="11" t="s">
+      <c r="K69" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
@@ -1955,13 +1967,27 @@
       <c r="C71" t="s">
         <v>107</v>
       </c>
+      <c r="D71" s="1">
+        <v>0.1</v>
+      </c>
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="K71" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="11"/>
+      <c r="L71" s="12"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,6 +478,25 @@
   </si>
   <si>
     <t>10月27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序原型设计</t>
+  </si>
+  <si>
+    <t>中高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +580,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -617,8 +636,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -638,25 +661,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -667,8 +678,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="59">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -696,6 +720,8 @@
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -723,6 +749,8 @@
     <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1022,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1034,49 +1062,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1088,17 +1116,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1108,27 +1136,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1140,17 +1168,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="16"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1163,17 +1191,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="16"/>
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1183,27 +1211,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1218,17 +1246,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="16"/>
+      <c r="A11" s="12"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1238,17 +1266,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="16"/>
+      <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1258,17 +1286,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="16"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1278,24 +1306,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1313,14 +1341,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1332,14 +1360,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1351,14 +1379,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1373,25 +1401,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1409,14 +1437,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1431,14 +1459,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1453,14 +1481,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1475,24 +1503,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1507,14 +1535,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1526,14 +1554,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1567,44 +1595,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="17">
         <v>0.6</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="16" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1619,21 +1647,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1642,19 +1670,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1787,13 +1815,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="13" t="s">
+      <c r="K58" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1810,13 +1838,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="13" t="s">
+      <c r="K60" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1845,13 +1873,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="13" t="s">
+      <c r="K62" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -1881,13 +1909,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="13" t="s">
+      <c r="K65" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -1909,13 +1937,13 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="12" t="s">
+      <c r="K67" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -1949,13 +1977,13 @@
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="12" t="s">
+      <c r="K69" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
@@ -1973,10 +2001,10 @@
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="12" t="s">
+      <c r="K71" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="12"/>
+      <c r="L71" s="14"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
@@ -1988,16 +2016,39 @@
       <c r="C73" t="s">
         <v>110</v>
       </c>
+      <c r="D73" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="B76" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -2007,13 +2058,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="120">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,18 @@
   </si>
   <si>
     <t>中高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月31号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,8 +592,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -660,14 +678,27 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -678,21 +709,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="65">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -722,6 +740,9 @@
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -751,6 +772,9 @@
     <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1050,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1062,49 +1086,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1116,17 +1140,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1136,27 +1160,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1168,17 +1192,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1191,17 +1215,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="12"/>
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1211,27 +1235,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1246,17 +1270,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="12"/>
+      <c r="A11" s="17"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1266,17 +1290,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="12"/>
+      <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1286,17 +1310,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="12"/>
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1306,24 +1330,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1341,14 +1365,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1360,14 +1384,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1379,14 +1403,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1401,25 +1425,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1437,14 +1461,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1459,14 +1483,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1481,14 +1505,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1503,24 +1527,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1535,14 +1559,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1554,14 +1578,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1595,44 +1619,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="22">
         <v>0.6</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="12" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1647,21 +1671,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1670,19 +1694,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1815,13 +1839,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="21" t="s">
+      <c r="K58" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1838,13 +1862,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="21" t="s">
+      <c r="K60" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1873,13 +1897,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="21" t="s">
+      <c r="K62" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -1909,13 +1933,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="21" t="s">
+      <c r="K65" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -1937,13 +1961,13 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -1977,13 +2001,13 @@
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
@@ -2001,10 +2025,10 @@
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="14"/>
+      <c r="L71" s="13"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
@@ -2030,6 +2054,9 @@
       <c r="C75" t="s">
         <v>114</v>
       </c>
+      <c r="D75" s="1">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="76" spans="1:15">
       <c r="B76" s="6" t="s">
@@ -2038,17 +2065,31 @@
       <c r="C76" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="22"/>
+      <c r="D76" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -2058,13 +2099,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="124">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,22 @@
   </si>
   <si>
     <t>微信小程序设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看好需求，明天开始设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序首页设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -592,8 +608,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -680,25 +698,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -709,8 +715,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="67">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -743,6 +761,7 @@
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -775,6 +794,7 @@
     <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1074,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1086,49 +1106,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1140,17 +1160,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1160,27 +1180,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1192,17 +1212,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="17"/>
+      <c r="A7" s="13"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1215,17 +1235,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="17"/>
+      <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1235,27 +1255,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1270,17 +1290,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="17"/>
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1290,17 +1310,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="17"/>
+      <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1310,17 +1330,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="17"/>
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1330,24 +1350,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1365,14 +1385,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1384,14 +1404,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1403,14 +1423,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1425,25 +1445,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1461,14 +1481,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1483,14 +1503,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1505,14 +1525,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1527,24 +1547,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1559,14 +1579,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1578,14 +1598,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1619,44 +1639,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="18">
         <v>0.6</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="17" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1671,21 +1691,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1694,19 +1714,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1839,13 +1859,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="14" t="s">
+      <c r="K58" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1862,13 +1882,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="14" t="s">
+      <c r="K60" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1897,13 +1917,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="14" t="s">
+      <c r="K62" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -1933,13 +1953,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="K65" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -1961,13 +1981,13 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="13" t="s">
+      <c r="K67" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -2001,13 +2021,13 @@
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="13" t="s">
+      <c r="K69" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
@@ -2025,10 +2045,10 @@
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="13" t="s">
+      <c r="K71" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="13"/>
+      <c r="L71" s="15"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
@@ -2080,16 +2100,33 @@
       <c r="C78" t="s">
         <v>119</v>
       </c>
+      <c r="D78" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -2099,13 +2136,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,19 @@
   </si>
   <si>
     <t>微信小程序首页设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序联系人分组页面设计（明天要看那边的需
+求情况，根据交互稿再定设计页面）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -677,7 +690,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -697,6 +710,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1106,49 +1122,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1160,17 +1176,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1180,27 +1196,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1212,17 +1228,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1235,17 +1251,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1255,27 +1271,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1290,17 +1306,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1310,17 +1326,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1330,17 +1346,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1350,24 +1366,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1385,14 +1401,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1404,14 +1420,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1423,14 +1439,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1445,25 +1461,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1481,14 +1497,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1503,14 +1519,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1525,14 +1541,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1547,24 +1563,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1579,14 +1595,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1598,14 +1614,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1639,44 +1655,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="19">
         <v>0.6</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="13" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1691,21 +1707,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1714,19 +1730,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1859,13 +1875,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="22" t="s">
+      <c r="K58" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1882,13 +1898,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="22" t="s">
+      <c r="K60" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1917,13 +1933,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="22" t="s">
+      <c r="K62" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -1953,13 +1969,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="22" t="s">
+      <c r="K65" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -1981,13 +1997,13 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="15" t="s">
+      <c r="K67" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -2021,13 +2037,13 @@
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="15" t="s">
+      <c r="K69" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
@@ -2045,10 +2061,10 @@
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="15" t="s">
+      <c r="K71" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="15"/>
+      <c r="L71" s="16"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
@@ -2116,6 +2132,20 @@
       </c>
       <c r="C80" t="s">
         <v>123</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="25" customHeight="1">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +534,18 @@
   <si>
     <t>微信小程序联系人分组页面设计（明天要看那边的需
 求情况，根据交互稿再定设计页面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序聊天页面，对话窗口设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -714,13 +726,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -730,18 +754,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="67">
@@ -1110,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1122,49 +1134,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1176,17 +1188,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1196,27 +1208,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1228,17 +1240,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1251,17 +1263,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="14"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1271,27 +1283,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1306,17 +1318,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1326,17 +1338,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="14"/>
+      <c r="A12" s="18"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1346,17 +1358,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="14"/>
+      <c r="A13" s="18"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1366,24 +1378,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1401,14 +1413,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1420,14 +1432,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1439,14 +1451,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1461,25 +1473,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1497,14 +1509,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1519,14 +1531,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1541,14 +1553,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1563,24 +1575,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1595,14 +1607,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1614,14 +1626,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1655,44 +1667,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="23">
         <v>0.6</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="14" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1707,21 +1719,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1730,19 +1742,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1875,13 +1887,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="K58" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1898,13 +1910,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="K60" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1933,13 +1945,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="K62" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -1969,13 +1981,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="23" t="s">
+      <c r="K65" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -1997,13 +2009,13 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="K67" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -2037,13 +2049,13 @@
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="K69" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
@@ -2061,10 +2073,10 @@
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="K71" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="16"/>
+      <c r="L71" s="14"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
@@ -2137,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="25" customHeight="1">
+    <row r="82" spans="1:4" ht="25" customHeight="1">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -2147,16 +2159,30 @@
       <c r="C82" t="s">
         <v>126</v>
       </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -2166,13 +2192,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="133">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,6 +546,18 @@
   </si>
   <si>
     <t>小程序聊天页面，对话窗口设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序交互修改，改稿，接着设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -726,25 +738,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -754,6 +754,18 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="67">
@@ -1122,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1134,49 +1146,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1188,17 +1200,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1208,27 +1220,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1240,17 +1252,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="18"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1263,17 +1275,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="18"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1283,27 +1295,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1318,17 +1330,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="18"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1338,17 +1350,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="18"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1358,17 +1370,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="18"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1378,24 +1390,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1413,14 +1425,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1432,14 +1444,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1451,14 +1463,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1473,25 +1485,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1509,14 +1521,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1531,14 +1543,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1553,14 +1565,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1575,24 +1587,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1607,14 +1619,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1626,14 +1638,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1667,44 +1679,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="19">
         <v>0.6</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="18" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1719,21 +1731,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1742,19 +1754,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1887,13 +1899,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="15" t="s">
+      <c r="K58" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1910,13 +1922,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="15" t="s">
+      <c r="K60" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1945,13 +1957,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="15" t="s">
+      <c r="K62" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -1981,13 +1993,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="15" t="s">
+      <c r="K65" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -2009,13 +2021,13 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -2049,13 +2061,13 @@
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
@@ -2073,10 +2085,10 @@
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="14"/>
+      <c r="L71" s="16"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
@@ -2173,16 +2185,30 @@
       <c r="C85" t="s">
         <v>129</v>
       </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -2192,13 +2218,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="137">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,6 +558,22 @@
   </si>
   <si>
     <t>小程序交互修改，改稿，接着设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户资料页+自定义分组+登录*2个页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月7号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将全部的设计稿标注输出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1134,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2198,6 +2214,25 @@
       </c>
       <c r="C87" t="s">
         <v>132</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="140">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,6 +574,18 @@
   </si>
   <si>
     <t>将全部的设计稿标注输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月8号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续设计小程序的页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -754,13 +766,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -770,18 +794,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="67">
@@ -1150,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1162,49 +1174,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1216,17 +1228,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1236,27 +1248,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1268,17 +1280,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1291,17 +1303,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="14"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1311,27 +1323,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1346,17 +1358,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1366,17 +1378,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="14"/>
+      <c r="A12" s="18"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1386,17 +1398,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="14"/>
+      <c r="A13" s="18"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1406,24 +1418,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1441,14 +1453,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1460,14 +1472,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1479,14 +1491,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1501,25 +1513,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1537,14 +1549,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1559,14 +1571,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1581,14 +1593,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1603,24 +1615,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1635,14 +1647,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1654,14 +1666,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1695,44 +1707,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="23">
         <v>0.6</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="14" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1747,21 +1759,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1770,19 +1782,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1915,13 +1927,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="K58" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1938,13 +1950,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="K60" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1973,13 +1985,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="K62" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -2009,13 +2021,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="23" t="s">
+      <c r="K65" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -2037,13 +2049,13 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="K67" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -2077,13 +2089,13 @@
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="K69" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
@@ -2101,10 +2113,10 @@
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="K71" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="16"/>
+      <c r="L71" s="14"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
@@ -2234,16 +2246,30 @@
       <c r="C90" t="s">
         <v>136</v>
       </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -2253,13 +2279,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="145">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,6 +590,26 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月9号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待命小程序设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,25 +786,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -794,6 +802,18 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="67">
@@ -1162,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1174,49 +1194,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1228,17 +1248,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1248,27 +1268,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1280,17 +1300,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="18"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1303,17 +1323,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="18"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1323,27 +1343,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1358,17 +1378,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="18"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1378,17 +1398,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="18"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1398,17 +1418,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="18"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1418,24 +1438,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1453,14 +1473,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1472,14 +1492,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1491,14 +1511,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1513,25 +1533,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1549,14 +1569,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1571,14 +1591,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1593,14 +1613,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1615,24 +1635,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1647,14 +1667,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1666,14 +1686,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1707,44 +1727,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="19">
         <v>0.6</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="18" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1759,21 +1779,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1782,19 +1802,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1927,13 +1947,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="15" t="s">
+      <c r="K58" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1950,13 +1970,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="15" t="s">
+      <c r="K60" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -1985,13 +2005,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="15" t="s">
+      <c r="K62" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -2021,13 +2041,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="15" t="s">
+      <c r="K65" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -2049,13 +2069,13 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -2089,13 +2109,13 @@
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
@@ -2113,10 +2133,10 @@
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="14"/>
+      <c r="L71" s="16"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
@@ -2260,16 +2280,38 @@
       <c r="C92" t="s">
         <v>139</v>
       </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="B95" t="s">
+        <v>143</v>
+      </c>
+      <c r="C95" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -2279,13 +2321,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="148">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,6 +610,18 @@
   </si>
   <si>
     <t>中高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,8 +705,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -786,13 +800,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -803,20 +829,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="69">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -850,6 +864,7 @@
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -883,6 +898,7 @@
     <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1182,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1194,49 +1210,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1248,17 +1264,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1268,27 +1284,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1300,17 +1316,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1323,17 +1339,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="14"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1343,27 +1359,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1378,17 +1394,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1398,17 +1414,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="14"/>
+      <c r="A12" s="18"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1418,17 +1434,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="14"/>
+      <c r="A13" s="18"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1438,24 +1454,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1473,14 +1489,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1492,14 +1508,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1511,14 +1527,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1533,25 +1549,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1569,14 +1585,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1591,14 +1607,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1613,14 +1629,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1635,24 +1651,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1667,14 +1683,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1686,14 +1702,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1727,44 +1743,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="23">
         <v>0.6</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="14" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1779,21 +1795,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1802,19 +1818,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1947,13 +1963,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="K58" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1970,13 +1986,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="K60" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -2005,13 +2021,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="K62" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -2041,13 +2057,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="23" t="s">
+      <c r="K65" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -2069,13 +2085,13 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="K67" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -2109,13 +2125,13 @@
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="K69" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
@@ -2133,10 +2149,10 @@
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="K71" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="16"/>
+      <c r="L71" s="14"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
@@ -2294,6 +2310,9 @@
       <c r="C94" t="s">
         <v>141</v>
       </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
       <c r="B95" t="s">
@@ -2302,16 +2321,30 @@
       <c r="C95" t="s">
         <v>144</v>
       </c>
+      <c r="D95" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -2321,13 +2354,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,6 +614,18 @@
   </si>
   <si>
     <t>11月10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月13日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -800,25 +812,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -828,6 +828,18 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -1198,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1210,49 +1222,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1264,17 +1276,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1284,27 +1296,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1316,17 +1328,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="18"/>
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1339,17 +1351,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="18"/>
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1359,27 +1371,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1394,17 +1406,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="18"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1414,17 +1426,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="18"/>
+      <c r="A12" s="14"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1434,17 +1446,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="18"/>
+      <c r="A13" s="14"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1454,24 +1466,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1489,14 +1501,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1508,14 +1520,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1527,14 +1539,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1549,25 +1561,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1585,14 +1597,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1607,14 +1619,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1629,14 +1641,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1651,24 +1663,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1683,14 +1695,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1702,14 +1714,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1743,44 +1755,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="19">
         <v>0.6</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="18" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1795,21 +1807,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1818,19 +1830,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1963,13 +1975,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="15" t="s">
+      <c r="K58" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1986,13 +1998,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="15" t="s">
+      <c r="K60" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -2021,13 +2033,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="15" t="s">
+      <c r="K62" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -2057,13 +2069,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="15" t="s">
+      <c r="K65" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -2085,13 +2097,13 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -2125,13 +2137,13 @@
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
@@ -2149,10 +2161,10 @@
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="14"/>
+      <c r="L71" s="16"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
@@ -2325,7 +2337,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>145</v>
       </c>
@@ -2335,16 +2347,30 @@
       <c r="C97" t="s">
         <v>147</v>
       </c>
+      <c r="D97" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -2354,13 +2380,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="154">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,6 +626,18 @@
   </si>
   <si>
     <t>11月13日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月14日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -812,13 +824,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -828,18 +852,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="69">
@@ -1210,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1222,49 +1234,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -1276,17 +1288,17 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1296,27 +1308,27 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1328,17 +1340,17 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1351,17 +1363,17 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="14"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1371,27 +1383,27 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1406,17 +1418,17 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1426,17 +1438,17 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="14"/>
+      <c r="A12" s="18"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -1446,17 +1458,17 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="14"/>
+      <c r="A13" s="18"/>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1466,24 +1478,24 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -1501,14 +1513,14 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -1520,14 +1532,14 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:16">
       <c r="B17" t="s">
@@ -1539,14 +1551,14 @@
       <c r="D17" s="2">
         <v>0.2</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" t="s">
@@ -1561,25 +1573,25 @@
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
     </row>
     <row r="19" spans="1:16">
       <c r="D19" s="3"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -1597,14 +1609,14 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
     </row>
     <row r="21" spans="1:16">
       <c r="B21" t="s">
@@ -1619,14 +1631,14 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16">
       <c r="B22" t="s">
@@ -1641,14 +1653,14 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" t="s">
@@ -1663,24 +1675,24 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
@@ -1695,14 +1707,14 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" t="s">
@@ -1714,14 +1726,14 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -1755,44 +1767,44 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14" customHeight="1">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="23">
         <v>0.6</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:11" ht="33" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="14" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:11" ht="56">
       <c r="A36" t="s">
@@ -1807,21 +1819,21 @@
       <c r="D36" s="1">
         <v>0.6</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -1830,19 +1842,19 @@
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
@@ -1975,13 +1987,13 @@
       <c r="J58" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="K58" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
     </row>
     <row r="59" spans="1:15">
       <c r="B59" t="s">
@@ -1998,13 +2010,13 @@
       <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="K60" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
@@ -2033,13 +2045,13 @@
       <c r="J62" t="s">
         <v>79</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="K62" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
     </row>
     <row r="63" spans="1:15">
       <c r="D63" s="1"/>
@@ -2069,13 +2081,13 @@
       <c r="J65" t="s">
         <v>80</v>
       </c>
-      <c r="K65" s="23" t="s">
+      <c r="K65" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
@@ -2097,13 +2109,13 @@
       <c r="J67" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="16" t="s">
+      <c r="K67" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
@@ -2137,13 +2149,13 @@
       <c r="J69" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="16" t="s">
+      <c r="K69" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
@@ -2161,10 +2173,10 @@
       <c r="J71" t="s">
         <v>89</v>
       </c>
-      <c r="K71" s="16" t="s">
+      <c r="K71" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="16"/>
+      <c r="L71" s="14"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
@@ -2361,16 +2373,30 @@
       <c r="C99" t="s">
         <v>150</v>
       </c>
+      <c r="D99" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="H34:K39"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G34"/>
     <mergeCell ref="I1:P26"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E1:E2"/>
@@ -2380,13 +2406,13 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H34:K39"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G34"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="K67:O67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目日报/尹魏方-每日要做的事.xlsx
+++ b/交流管理/项目日报/尹魏方-每日要做的事.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="160">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,6 +646,30 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习sketch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2386,6 +2410,34 @@
       </c>
       <c r="C101" t="s">
         <v>153</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" t="s">
+        <v>156</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
